--- a/pred_ohlcv/54_21/2020-01-22 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 EOS ohlcv.xlsx
@@ -3954,7 +3954,7 @@
         <v>35259.91162376</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>40061.23316364999</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>40139.74246364999</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>26095.20917516997</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>27928.97557516997</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>21382.15117516997</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>21382.15117516997</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>19332.15117516997</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>11291.12877516997</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>8665.045475169969</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>12870.04637516997</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-17270.98232483003</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-15463.26072483003</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-16636.01152483003</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-18151.55922483003</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-17271.59382483003</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-14067.48272483003</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-14507.66222483003</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-11950.49392483003</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-11950.49392483003</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-11546.54572483003</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-10516.04242483003</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-10514.94111923003</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-13314.29511923003</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-13160.18181923003</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-13160.18181923003</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-12994.27481923003</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-13112.24811923003</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-16465.02651923003</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-16526.85001923003</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-16454.47411923003</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-16496.57231923003</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-14659.83081923003</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-8535.399455340028</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-8535.399455340028</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-7985.199455340028</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-7935.199455340028</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-3706.854755340029</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>2224.765844659972</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>1916.079044659972</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>2435.603344659972</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>2470.026244659972</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>2701.679244659972</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>1292.639888779972</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-854.1980814200285</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-874.1980814200285</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-568.8165814200286</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-7649.635481420029</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>2527747.937168501</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>2527747.937168501</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>2527747.937168501</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>2527747.937168501</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>2524137.017411751</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>2529149.190811751</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>2529128.90899368</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>2511427.833448817</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>2511664.744048817</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>2511464.744048817</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>2511795.362048817</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>2511658.229948817</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>2512019.352148817</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>2512019.352148817</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>2512020.751548817</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>2510996.522848817</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>2510996.522848817</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>2509440.612148817</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>2509842.249948817</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>2509664.820648817</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>2510041.933648817</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>2510522.837148817</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>2510563.480048817</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>2510562.749648817</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>2513646.081348817</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>2513647.767448817</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>2513987.848848817</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>2513985.895348818</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>2513595.979648818</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>2529739.304273438</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>2532451.259873438</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>2532319.212573437</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>2533800.259073438</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>2533613.811173438</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>2530424.075173438</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>2530424.075173438</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>2530424.075173438</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>2530424.075173438</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>2530471.546873438</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>2534305.842673438</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>2534292.329073437</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>2534292.595820128</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>2534089.500802077</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>2535829.016602078</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>2535829.016602078</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>2537904.048302078</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>2537677.022402078</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>2537790.658402078</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>2539863.959402078</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>2539693.959402078</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>2539693.076002078</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>2540068.374702078</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>2541437.925702078</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>2541437.925702078</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>2557327.310938978</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>2549032.223838978</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>2551800.649238978</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>2552775.467738978</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>2551623.355338978</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>2550300.656638978</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>2550409.252138977</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>2550409.252138977</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>2550219.451438977</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>2549491.444338977</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>2552945.504738977</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>2552239.273738977</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>2555238.355320777</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>2555238.355320777</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>2560242.393420777</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>2560748.960820777</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>2560052.087120777</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>2560052.087120777</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>2557744.819620777</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>2554396.793820777</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>2556303.895620777</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>2555472.543020777</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>2554234.483320777</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>2543549.207320777</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>2547122.709220777</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>2546511.351520777</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>2549275.617020777</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>2548982.773320777</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>2549707.001320777</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>2549956.902520777</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>2546086.100920777</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>2546606.560120777</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>2547822.589720777</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>2548122.589720777</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>2547110.613720777</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>2548246.306120778</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>2547208.532020777</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>2546627.980663947</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>2546218.480663947</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>2549602.398763947</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>2545283.110563947</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>2545283.110563947</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>2544767.987663948</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>2544640.385363948</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>2541876.361987628</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>2545583.052368468</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>2545583.052368468</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>2545583.052368468</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>2546054.477068468</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>2546076.921068468</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>2544319.674868468</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>2544461.729368468</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>2543170.863068468</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>2542452.349468468</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>2542452.349468468</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>2541961.652868468</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>2542145.690462828</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>2542782.747762828</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>2542149.041362828</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>2536041.912462828</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>2536070.500862828</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>2534498.341362828</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>2535339.639762828</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>2534801.352262828</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>2534801.352262828</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>2534902.968262828</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>2534660.747762828</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>2530974.396362828</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>2529373.293562828</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>2529542.141262828</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>2520411.916862828</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>2517127.234562828</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>2515524.967462827</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 EOS ohlcv.xlsx
@@ -3954,7 +3954,7 @@
         <v>35259.91162376</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>40061.23316364999</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>40139.74246364999</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>26095.20917516997</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>27928.97557516997</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>21382.15117516997</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>21382.15117516997</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>19332.15117516997</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>11291.12877516997</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>8665.045475169969</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-17270.98232483003</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-15463.26072483003</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-16575.03662483003</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-16575.03662483003</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-16636.01152483003</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-18151.55922483003</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-17271.59382483003</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-14067.48272483003</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-14507.66222483003</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-11950.49392483003</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-11950.49392483003</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-11546.54572483003</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-11332.09182483003</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-13785.60572483003</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-11744.78232483003</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-10516.04242483003</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-10514.94111923003</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-13314.29511923003</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-13160.18181923003</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-13160.18181923003</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-12994.27481923003</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-13112.24811923003</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-16465.02651923003</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-16526.85001923003</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-16454.47411923003</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-16496.57231923003</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-14659.83081923003</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-8535.399455340028</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-8535.399455340028</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-7985.199455340028</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-7935.199455340028</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-3706.854755340029</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>2224.765844659972</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>1916.079044659972</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>2435.603344659972</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>2470.026244659972</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>2701.679244659972</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>1292.639888779972</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-854.1980814200285</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-874.1980814200285</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-568.8165814200286</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-7649.635481420029</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>2527747.937168501</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>2527747.937168501</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>2527747.937168501</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>2527747.937168501</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>2524137.017411751</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>2529149.190811751</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>2529128.90899368</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>2511427.833448817</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>2511664.744048817</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>2511464.744048817</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>2511795.362048817</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>2511658.229948817</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>2512019.352148817</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>2512019.352148817</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>2512020.751548817</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>2510996.522848817</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>2510996.522848817</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>2509440.612148817</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>2509842.249948817</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>2509664.820648817</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>2510041.933648817</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>2510522.837148817</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>2510563.480048817</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>2510562.749648817</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>2513646.081348817</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>2513647.767448817</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>2513987.848848817</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>2513985.895348818</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>2513595.979648818</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>2529739.304273438</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>2532451.259873438</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>2532319.212573437</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>2533800.259073438</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>2533613.811173438</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>2530424.075173438</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>2530424.075173438</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>2530424.075173438</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>2530424.075173438</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>2530471.546873438</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>2534305.842673438</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>2534292.329073437</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>2534292.595820128</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>2534089.500802077</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>2535829.016602078</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>2535829.016602078</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>2537904.048302078</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>2537677.022402078</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>2537790.658402078</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>2539863.959402078</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>2539693.959402078</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>2539693.076002078</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>2540068.374702078</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>2541437.925702078</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>2541437.925702078</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>2557327.310938978</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>2549032.223838978</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>2551800.649238978</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>2552775.467738978</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>2551623.355338978</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>2550300.656638978</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>2550409.252138977</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>2550409.252138977</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>2550219.451438977</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>2549491.444338977</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>2552945.504738977</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>2552239.273738977</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>2555238.355320777</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>2555238.355320777</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>2560242.393420777</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>2560748.960820777</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>2560052.087120777</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>2560052.087120777</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>2557744.819620777</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>2556303.895620777</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>2555472.543020777</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>2554234.483320777</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>2543549.207320777</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>2547122.709220777</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>2546511.351520777</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>2549275.617020777</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>2548982.773320777</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>2549707.001320777</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>2546086.100920777</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>2546086.100920777</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>2548122.589720777</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>2547110.613720777</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>2548246.306120778</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>2546614.057663947</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>2546627.980663947</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>2546218.480663947</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>2549602.398763947</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>2545283.110563947</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>2545283.110563947</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>2544767.987663948</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>2544640.385363948</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>2544640.385363948</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>2544874.518340268</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>2538784.960140268</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>2542543.681787628</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>2542576.285287628</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>2542576.285287628</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>2541876.361987628</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>2541060.599287628</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>2544111.639268468</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>2545583.052368468</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>2545583.052368468</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>2545583.052368468</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>2546054.477068468</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>2546076.921068468</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>2544319.674868468</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>2544461.729368468</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>2543170.863068468</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>2542452.349468468</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>2542452.349468468</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>2541961.652868468</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>2542145.690462828</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>2542782.747762828</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>2542149.041362828</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>2536041.912462828</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>2536070.500862828</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>2534498.341362828</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>2535339.639762828</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>2534801.352262828</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>2534801.352262828</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>2534902.968262828</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>2534660.747762828</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>2530974.396362828</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>2529373.293562828</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>2529542.141262828</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>2520411.916862828</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>2517127.234562828</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>2517621.515262828</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>2517818.910062828</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>2515524.967462827</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>2516685.243562828</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>2516905.052862828</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>2516583.012562828</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>2516685.219762828</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>2516453.020762828</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>2513171.890942326</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>2514032.963342326</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>2518189.271742326</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>2518051.234742326</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>2516757.344542326</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>2517625.586342326</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>2516501.113942327</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
